--- a/SolBeePop_Tables.xlsx
+++ b/SolBeePop_Tables.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\781.02_796.166\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SolBeePop\MS1_SolBeePop\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67800DC-401E-45FF-B37D-288297F26EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16867D7-848B-43AC-8639-688395977A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C95B7031-F96D-4486-80AF-8B9F13648340}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C95B7031-F96D-4486-80AF-8B9F13648340}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta Info" sheetId="8" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="705">
   <si>
     <t>Procedure</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bee species </t>
-  </si>
-  <si>
-    <t>Used to determine nesting strategy (below-ground, above-ground, leafcutting); can be used to verify correct input file if applicable</t>
   </si>
   <si>
     <t>nest.strategy</t>
@@ -1231,9 +1228,6 @@
   </si>
   <si>
     <t>DD.log.slope</t>
-  </si>
-  <si>
-    <t>Slope of the logistic density dependence function if DD.funct = 'log'</t>
   </si>
   <si>
     <t>Unused if DD.funct = 'linear'</t>
@@ -1962,9 +1956,6 @@
     <t>Emergence day is stochastically chosen by each newly 'created' male from the distribution defined by the mean (this value) and the standard deviation (var.emerge.m)</t>
   </si>
   <si>
-    <t>Lastest day of year when emergence occurs; IMPORTANT: defines latest emerge date of last generation of the year in multivoltine life cylcles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Set to 365 for simulations of univoltine life cycles except for simulations of a (semi-)field study, this date needs to be set according to the reported end date irrespective of voltinism </t>
   </si>
   <si>
@@ -1992,9 +1983,6 @@
     <t>On, Off</t>
   </si>
   <si>
-    <t>linear', 'log'</t>
-  </si>
-  <si>
     <t>Value needs to be smaller than day.emerge.f</t>
   </si>
   <si>
@@ -2025,39 +2013,21 @@
     <t>Possible value range (see species-specific 'par_description' tables for realistic values)</t>
   </si>
   <si>
-    <t xml:space="preserve">Slope of the linear relationship between brood cell production rate and nesting female age </t>
-  </si>
-  <si>
     <t>See TRACE documentation (Sections 2.4.2 and 3.2.1) for details</t>
   </si>
   <si>
-    <t>Slope of the linear relationship between brood cell production rate and resource availability</t>
-  </si>
-  <si>
     <t>See TRACE documentation (Sections 2.4.2 and 3.2.2) for details</t>
   </si>
   <si>
-    <t xml:space="preserve">Slope of the linear relationship between offspring sex ratio and nesting female age </t>
-  </si>
-  <si>
     <t>See TRACE documentation (Sections 2.4.2 and 3.2.3) for details</t>
   </si>
   <si>
-    <t xml:space="preserve">Slope of the linear relationship between brood provision size and nesting female age </t>
-  </si>
-  <si>
     <t>See TRACE documentation (Sections 2.4.2 and 3.2.5) for details</t>
   </si>
   <si>
     <t>See TRACE documentation (Sections 2.4.2 and 3.2.4) for details</t>
   </si>
   <si>
-    <t>Slope of the linear relationship between offspring sex ratio and resource availability</t>
-  </si>
-  <si>
-    <t>Slope of the linear relationship between brood provision size and resource availability</t>
-  </si>
-  <si>
     <t>See TRACE documentation (Sections 2.4.2 and 3.2.6) for details</t>
   </si>
   <si>
@@ -2149,12 +2119,78 @@
   </si>
   <si>
     <t>See also description in TRACE documentation, Appendix B</t>
+  </si>
+  <si>
+    <t>'linear', 'log'</t>
+  </si>
+  <si>
+    <t>positive integer</t>
+  </si>
+  <si>
+    <t>csv file</t>
+  </si>
+  <si>
+    <t>'csv file</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>1/day</t>
+  </si>
+  <si>
+    <t>&gt;-1 - 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope of the linear relationship between offspring sex ratio and nesting female age; assumption that offspring female sex ratio decreases with nesting female age (values &lt; 0; a.sex.age = 0 means that nesting female age has no effect on offspring sex ratio)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope of the linear relationship between brood cell production rate and nesting female age; assumption that the brood cell production rate decreases with nesting female age (values &lt; 0; a.cell.age = 0 means that nesting female age has no effect on brood cell production rate) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope of the linear relationship between brood provision size and nesting female age; assumption that provision / offspring size decreases with nesting female age (values &lt; 0; a.size.age = 0 means that nesting female age has no effect on provision size)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope of the linear relationship between brood cell production rate and resource availability; assumption that higher resources correspond to higher brood cell production rate (a.cell.resource = 0 means that brood cell production rate is independent of the resource availability; a.cell.resource = 1 means that the resource availability, which is a daily input between 0 and 1, is directly 'translated' to the brood cell production rate </t>
+  </si>
+  <si>
+    <t>Slope of the linear relationship between offspring sex ratio and resource availability; assumption that higher resources correspond to higher offspring female sex ratio (a.sex.resource = 0 means that offspring female sex ratio is independent of the resource availability; a.sex.resource = 1 means that the resource availability, which is a daily input between 0 and 1, is directly 'translated' to the offspring female sex ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope of the linear relationship between brood provision size and resource availability; assumption that higher resources correspond to higher provision / offspring size (a.size.resource = 0 means that provision size is independent of the resource availability; a.size.resource = 1 means that the resource availability, which is a daily input between 0 and 1, is directly 'translated' to the provision size </t>
+  </si>
+  <si>
+    <t>Species-specific trait (see also tables &lt;genus name&gt;_par_description)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Used to determine nesting strategy (below-ground, above-ground, leafcutting); can be used to verify correct input file if applicable; note that setting the species name does NOT automatically set values of species-specific traits</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>Lastest day of year when emergence occurs; IMPORTANT: defines latest emerge date of last generation of the year in multivoltine life cycles</t>
+  </si>
+  <si>
+    <t>yes (for multivoltine species)</t>
+  </si>
+  <si>
+    <t>Slope of the logistic density dependence function if DD.funct = 'log'; larger values result in later onset of density dependence with a steeper slope; a value of 0 would result in a relative brood cell production rate of 0.5 independent of brood already present in the population; values &lt; 0 would result in increase in brood production rate with increasing density</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2314,7 +2350,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2370,6 +2405,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2686,9 +2722,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7716073E-A527-42E6-BAEB-C59F29A5E726}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
@@ -2696,100 +2734,100 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" t="s">
         <v>361</v>
-      </c>
-      <c r="B2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="19">
-        <v>44988</v>
+        <v>362</v>
+      </c>
+      <c r="B3" s="38">
+        <v>45195</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" t="s">
         <v>366</v>
-      </c>
-      <c r="B7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" t="s">
         <v>368</v>
-      </c>
-      <c r="B8" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +2835,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2811,13 +2849,13 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
@@ -2826,572 +2864,572 @@
     <col min="5" max="5" width="36.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="28" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>528</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>445</v>
+      <c r="B1" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="E3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="23">
+        <v>105</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="23">
+        <v>91</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="23">
+        <v>8</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="23">
+        <v>32</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="23">
+        <v>68</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="23">
+        <v>3</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="23">
+        <v>21</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="23">
+        <v>36</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="23">
+        <v>0.59</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="23">
+        <v>2</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="23">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="24">
-        <v>105</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="24">
-        <v>91</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="E23" s="21"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="24">
-        <v>8</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="21" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="24">
-        <v>32</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="24">
-        <v>68</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="24">
-        <v>3</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="E28" s="21" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="23">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="23">
+        <v>-4.0599999999999997E-2</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="24">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="23">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="24">
-        <v>36</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="24">
-        <v>0.59</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="24">
-        <v>2</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" s="24">
-        <v>0.74</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B35" s="24">
-        <v>0.74</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="24">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="C36" s="26" t="s">
+      <c r="B42" s="23">
+        <v>0.114</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="24">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="24">
-        <v>-4.0599999999999997E-2</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="24">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E39" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="24">
-        <v>0.94</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="24">
-        <v>0.42</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="24">
-        <v>0.114</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3407,7 +3445,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="91.5703125" style="1" customWidth="1"/>
@@ -3415,444 +3453,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="32" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="B17" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="B46" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="B48" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="D48" s="21"/>
-    </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="D49" s="21"/>
-    </row>
-    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D51" s="21"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
+      <c r="A69" s="26"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
+      <c r="A70" s="26"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
+      <c r="A71" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3870,7 +3908,7 @@
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
@@ -3889,13 +3927,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>4</v>
@@ -3924,7 +3962,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>44</v>
@@ -3936,155 +3974,155 @@
     </row>
     <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>44</v>
@@ -4093,13 +4131,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4220,938 +4258,1109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521674B3-031C-451D-9AF0-E312D13FAA6A}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="55" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="15.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="55" style="3" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>691</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="23" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
+      <c r="E40" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E41" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>603</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>638</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>640</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>640</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>640</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>634</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>635</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>644</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="26" t="s">
-        <v>644</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>645</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>648</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24" t="s">
-        <v>652</v>
-      </c>
-      <c r="G37" s="26" t="s">
+      <c r="E42" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="H42" s="25" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24" t="s">
-        <v>656</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24" t="s">
-        <v>658</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24" t="s">
-        <v>654</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24" t="s">
-        <v>661</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24" t="s">
-        <v>662</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="10"/>
       <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="15"/>
-      <c r="E56" s="20"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:G56">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:H56">
     <sortCondition ref="C20:C56"/>
     <sortCondition ref="B20:B56"/>
   </sortState>
@@ -5168,7 +5377,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
@@ -5177,20 +5386,20 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>3</v>
@@ -5208,73 +5417,73 @@
         <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -5287,13 +5496,13 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -5305,13 +5514,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>8</v>
@@ -5325,41 +5534,41 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -5370,7 +5579,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>44</v>
@@ -5379,12 +5588,12 @@
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
@@ -5393,18 +5602,18 @@
         <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -5416,7 +5625,7 @@
         <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5450,10 +5659,10 @@
         <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5470,7 +5679,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>47</v>
@@ -5478,7 +5687,7 @@
     </row>
     <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
@@ -5490,15 +5699,15 @@
         <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
@@ -5510,12 +5719,12 @@
         <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
@@ -5527,12 +5736,12 @@
         <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
@@ -5544,12 +5753,12 @@
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
@@ -5561,12 +5770,12 @@
         <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
@@ -5578,7 +5787,7 @@
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5595,10 +5804,10 @@
         <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5615,10 +5824,10 @@
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5629,26 +5838,26 @@
         <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
@@ -5660,15 +5869,15 @@
         <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
@@ -5680,15 +5889,15 @@
         <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
@@ -5700,15 +5909,15 @@
         <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
@@ -5720,15 +5929,15 @@
         <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
@@ -5740,12 +5949,12 @@
         <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
@@ -5757,12 +5966,12 @@
         <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
@@ -5774,12 +5983,12 @@
         <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>50</v>
@@ -5791,12 +6000,12 @@
         <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>50</v>
@@ -5808,15 +6017,15 @@
         <v>44</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>50</v>
@@ -5828,15 +6037,15 @@
         <v>44</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>50</v>
@@ -5848,15 +6057,15 @@
         <v>44</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>50</v>
@@ -5868,12 +6077,12 @@
         <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>50</v>
@@ -5885,12 +6094,12 @@
         <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
@@ -5902,12 +6111,12 @@
         <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>50</v>
@@ -5919,15 +6128,15 @@
         <v>44</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
@@ -5939,15 +6148,15 @@
         <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>50</v>
@@ -5959,75 +6168,75 @@
         <v>44</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6083,7 +6292,7 @@
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>50</v>
@@ -6097,7 +6306,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>50</v>
@@ -6109,15 +6318,15 @@
         <v>44</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
@@ -6129,15 +6338,15 @@
         <v>44</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
@@ -6149,15 +6358,15 @@
         <v>44</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
@@ -6169,67 +6378,67 @@
         <v>44</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6240,7 +6449,7 @@
         <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>44</v>
@@ -6249,7 +6458,7 @@
         <v>49</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -6269,7 +6478,7 @@
       <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
@@ -6288,27 +6497,27 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -6317,66 +6526,66 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="N6" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -6387,25 +6596,25 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G8" s="1">
         <v>10</v>
@@ -6414,54 +6623,54 @@
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="N8" s="1">
         <v>10</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
@@ -6470,144 +6679,144 @@
         <v>7.2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K9" s="1">
         <v>7.1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N9" s="1">
         <v>8.9</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N10" s="1">
         <v>25.4</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G11" s="1">
         <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K11" s="1">
         <v>78</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="Q11" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -6618,40 +6827,40 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L13" s="1">
         <v>11</v>
@@ -6663,33 +6872,33 @@
         <v>10</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -6703,22 +6912,22 @@
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -6730,24 +6939,24 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -6758,27 +6967,27 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -6789,27 +6998,27 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -6820,27 +7029,27 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -6851,27 +7060,27 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="18" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -6882,91 +7091,91 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -7044,13 +7253,13 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
@@ -7060,537 +7269,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>587</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="23">
+        <v>212</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21" t="s">
+      <c r="D20" s="20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="23">
+        <v>30</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="23">
+        <v>202</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="23">
+        <v>15</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="D23" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="23">
+        <v>249</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="23">
+        <v>15</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="24">
-        <v>212</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="24">
-        <v>30</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="24">
-        <v>202</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="B27" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="23">
+        <v>4</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="D22" s="21" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="23">
+        <v>1.65</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="D33" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="24">
-        <v>15</v>
-      </c>
-      <c r="C23" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="24">
-        <v>249</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="24">
-        <v>15</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="24">
-        <v>4</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
+      <c r="B36" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="24">
-        <v>1.65</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21" t="s">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="23">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="24">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>586</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>138</v>
-      </c>
+      <c r="D37" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="23">
         <v>-4.0599999999999997E-2</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="23">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="24">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="D39" s="21" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="23">
+        <v>0.114</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="24">
-        <v>0.94</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="24">
-        <v>0.42</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="24">
-        <v>0.114</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -7610,7 +7820,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
@@ -7619,515 +7829,515 @@
     <col min="5" max="5" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="23">
+        <v>166</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="D20" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="23">
+        <v>164</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="23">
+        <v>185</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="23">
+        <v>3</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="23">
+        <v>9</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="24">
+      <c r="B27" s="23">
+        <v>8</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="23">
+        <v>7</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="23">
+        <v>7</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="23">
+        <v>52</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="24">
-        <v>164</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="B31" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="24">
-        <v>185</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="24">
-        <v>3</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="24">
-        <v>9</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="C31" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="23">
+        <v>0.83</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="23">
+        <v>2</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="24">
-        <v>8</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="24">
-        <v>7</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="24">
-        <v>7</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="24">
-        <v>52</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="24">
-        <v>0.83</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="24">
-        <v>2</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" s="24">
-        <v>0.65</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B35" s="24">
-        <v>0.65</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="B36" s="23">
+        <v>0.69</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="24">
-        <v>0.69</v>
-      </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="23">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>138</v>
+      <c r="C37" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="23">
         <v>-4.0599999999999997E-2</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="23">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="24">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="D39" s="21" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="23">
+        <v>0.114</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="24">
-        <v>0.94</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="24">
-        <v>0.42</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="24">
-        <v>0.114</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -8146,7 +8356,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="3" customWidth="1"/>
@@ -8156,575 +8366,575 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="18" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="23">
+        <v>174</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="23">
+        <v>6</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="21" t="s">
+      <c r="D21" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="23">
+        <v>167</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="23">
+        <v>2</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="23">
+        <v>6</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="23">
+        <v>20</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="23">
+        <v>1</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="23">
+        <v>26</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>510</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="21" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="23">
+        <v>0.51</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="24">
-        <v>174</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="24">
-        <v>6</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="24">
-        <v>167</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="21" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="23">
+        <v>1</v>
+      </c>
+      <c r="C33" s="35">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" s="23">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="23">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="E23" s="21"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="24">
-        <v>2</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="24">
-        <v>6</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="21" t="s">
+      <c r="C36" s="35"/>
+      <c r="D36" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="23">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="24">
+      <c r="E37" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="23">
+        <v>-4.0599999999999997E-2</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="24">
-        <v>1</v>
-      </c>
-      <c r="C28" s="35" t="s">
+      <c r="B39" s="23">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="24">
-        <v>26</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="24">
-        <v>0.51</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="24">
-        <v>1</v>
-      </c>
-      <c r="C33" s="36">
-        <v>1</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" s="24">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="B35" s="24">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="24">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="24">
-        <v>-4.0599999999999997E-2</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="D38" s="21" t="s">
+      <c r="E41" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="24">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="C39" s="35" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="23">
+        <v>0.114</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E39" s="21" t="s">
+      <c r="D42" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="E42" s="20" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="24">
-        <v>0.94</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="24">
-        <v>0.42</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="24">
-        <v>0.114</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8763,4 +8973,273 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B67DFCB3A04E944DA601239721DF343A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ce00e640a0dc486469625ade3f226d5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d7500b1f-3c2f-4500-8902-b86074298e29" xmlns:ns3="1cf6f34a-aa9c-4dc9-a925-b379254668b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db9ee6b2892c84b95ce424817c2e4fbc" ns2:_="" ns3:_="">
+    <xsd:import namespace="d7500b1f-3c2f-4500-8902-b86074298e29"/>
+    <xsd:import namespace="1cf6f34a-aa9c-4dc9-a925-b379254668b8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d7500b1f-3c2f-4500-8902-b86074298e29" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="045b586b-fecb-4896-8ea8-413c682afbc7" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="21" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1cf6f34a-aa9c-4dc9-a925-b379254668b8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{14d759e4-b78c-4012-94b7-2b1f4d57cef9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1cf6f34a-aa9c-4dc9-a925-b379254668b8">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1cf6f34a-aa9c-4dc9-a925-b379254668b8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d7500b1f-3c2f-4500-8902-b86074298e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B85163A5-D3A8-4D18-A790-7B267D769C79}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BC8E588-F899-4B70-AA7F-AF2E6679DD5A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6768C640-5D50-4770-AE0C-B3397525C56B}"/>
 </file>